--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Phenikaa University\AML\0. Project\5. MicroMouse\3. Github Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B68FEF-5E9E-4D4B-B3C0-2495AC00D5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BF2DD-9C31-43C3-B04B-F828A0D0D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Trục 5mm</t>
+  </si>
+  <si>
+    <t>Bánh bi</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(E:E)</f>
-        <v>850750</v>
+        <v>906250</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,9 +664,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55500</v>
+      </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Phenikaa University\AML\0. Project\5. MicroMouse\3. Github Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BF2DD-9C31-43C3-B04B-F828A0D0D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A949054-F5C2-4DAA-9B8C-BD05D83B436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Trục 5mm</t>
   </si>
   <si>
-    <t>Bánh bi</t>
+    <t>Bi mắt trâu</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
   </si>
 </sst>
 </file>
@@ -115,15 +118,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,11 +140,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +168,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +495,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,7 +510,7 @@
     <col min="8" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -514,12 +544,9 @@
         <f>C2*D2</f>
         <v>60000</v>
       </c>
-      <c r="G2" s="3">
-        <f>SUM(E:E)</f>
-        <v>906250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -537,7 +564,7 @@
         <v>156700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -555,7 +582,7 @@
         <v>139050</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -573,7 +600,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -590,8 +617,11 @@
         <f t="shared" si="0"/>
         <v>59000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -608,8 +638,12 @@
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <f>SUM(E:E)</f>
+        <v>890750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -627,7 +661,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -645,7 +679,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -663,7 +697,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -671,29 +705,29 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>55500</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>55500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Phenikaa University\AML\0. Project\5. MicroMouse\3. Github Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A949054-F5C2-4DAA-9B8C-BD05D83B436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D45480-0629-4B42-BF98-3CCBD51D4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>PCB V2</t>
+  </si>
+  <si>
+    <t>TB6612FNG (mua thêm)</t>
+  </si>
+  <si>
+    <t>Pin Lipo 3S (cháy pin cũ, mua lại)</t>
+  </si>
+  <si>
+    <t>An tự đóng học phí</t>
+  </si>
+  <si>
+    <t>Vòng bi 625</t>
   </si>
 </sst>
 </file>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC095D6-7FC0-40AD-A40A-FBCC01CFBF0B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,7 +520,7 @@
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
   </cols>
@@ -560,7 +575,7 @@
         <v>78350</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E15" si="0">C3*D3</f>
         <v>156700</v>
       </c>
     </row>
@@ -640,7 +655,7 @@
       </c>
       <c r="I7" s="5">
         <f>SUM(E:E)</f>
-        <v>890750</v>
+        <v>1247647</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -716,21 +731,78 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>86000</v>
+      </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38500</v>
+      </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>145397</v>
+      </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>145397</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Phenikaa University\AML\0. Project\5. MicroMouse\3. Github Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D45480-0629-4B42-BF98-3CCBD51D4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E47A8-6A07-41B8-97A7-41525D2ED3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Vòng bi 625</t>
+  </si>
+  <si>
+    <t>Người mua</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,6 +544,9 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">

--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Phenikaa University\AML\0. Project\5. MicroMouse\3. Github Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E47A8-6A07-41B8-97A7-41525D2ED3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F3F6EE-3541-4716-982B-8855C8E88E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{D07DEA89-26FB-4652-A59A-55D5EE707AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Người mua</t>
+  </si>
+  <si>
+    <t>Lê Trọng An</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Tuấn</t>
   </si>
 </sst>
 </file>
@@ -214,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,7 +519,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,6 +571,9 @@
         <f>C2*D2</f>
         <v>60000</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -584,6 +593,9 @@
         <f t="shared" ref="E3:E15" si="0">C3*D3</f>
         <v>156700</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -602,6 +614,9 @@
         <f t="shared" si="0"/>
         <v>139050</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -620,6 +635,9 @@
         <f t="shared" si="0"/>
         <v>118000</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -638,6 +656,9 @@
         <f t="shared" si="0"/>
         <v>59000</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
@@ -659,6 +680,9 @@
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="5">
         <f>SUM(E:E)</f>
         <v>1247647</v>
@@ -681,6 +705,9 @@
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -699,6 +726,9 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -717,6 +747,9 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -735,6 +768,9 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -753,6 +789,9 @@
         <f t="shared" si="0"/>
         <v>86000</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -771,6 +810,9 @@
         <f t="shared" si="0"/>
         <v>115500</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -809,6 +851,9 @@
       <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>10000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
